--- a/sources/fact_extraction_viewpoint/economy-table11.xlsx
+++ b/sources/fact_extraction_viewpoint/economy-table11.xlsx
@@ -148,8 +148,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="General_)"/>
-    <numFmt numFmtId="169" formatCode="0_)"/>
+    <numFmt numFmtId="164" formatCode="General_)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -347,25 +347,25 @@
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -400,26 +400,26 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -434,33 +434,33 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -475,6 +475,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Заголовок 1" xfId="2" builtinId="16"/>
@@ -1013,8 +1014,8 @@
   <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A59:L59"/>
+      <pane ySplit="6" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5"/>
@@ -3116,15 +3117,15 @@
       </c>
       <c r="B59" s="55"/>
       <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
+      <c r="D59" s="57"/>
       <c r="E59" s="56"/>
-      <c r="F59" s="56"/>
+      <c r="F59" s="57"/>
       <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
+      <c r="H59" s="57"/>
       <c r="I59" s="56"/>
-      <c r="J59" s="56"/>
+      <c r="J59" s="57"/>
       <c r="K59" s="56"/>
-      <c r="L59" s="56"/>
+      <c r="L59" s="57"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1">
       <c r="A60" s="17" t="s">
